--- a/Project4/results/performance_data.xlsx
+++ b/Project4/results/performance_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harrya\Documents\ECSE 6320 Adv Computer Systems\ECSE6320-Adv-Computer-Systems\Project4\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA0F2FF-E482-48D7-BDCB-91D7ED745AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52221073-D3C4-4EDF-A380-6CFF6B4277B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,15 +26,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>No encoding</t>
   </si>
   <si>
     <t>Encoding</t>
-  </si>
-  <si>
-    <t>Prefix query</t>
   </si>
   <si>
     <t>Encoding &amp; SIMD</t>
@@ -45,12 +42,24 @@
   <si>
     <t>Single word query ("wociz")</t>
   </si>
+  <si>
+    <t>Words per thread</t>
+  </si>
+  <si>
+    <t>Encoding Time (seconds)</t>
+  </si>
+  <si>
+    <t>Prefix query ("")</t>
+  </si>
+  <si>
+    <t>"bcjh"</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +71,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -87,9 +102,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -108,6 +126,614 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Encoding</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Time vs Words/Thread</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>encoding!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Encoding Time (seconds)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>encoding!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>encoding!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>71.955500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67.151600000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65.665899999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71.587299999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>102.253</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F224-4F05-9780-C7DBC9FB3B11}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="948264559"/>
+        <c:axId val="904663679"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>encoding!$A$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Words per thread</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>encoding!$A$2:$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>200000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2000000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>20000000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>200000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>encoding!$A$2:$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>200000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2000000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>20000000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>200000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-F224-4F05-9780-C7DBC9FB3B11}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="948264559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Words / thread</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="904663679"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="904663679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Encoding</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Time (sec)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="948264559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -529,6 +1155,525 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Prefix Query Performance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>queries!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>"pik"</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>queries!$A$13:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>No encoding</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Encoding</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Encoding &amp; SIMD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>queries!$B$13:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>11.5304</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.102899999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.580500000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B199-4347-AA41-D7FE09E7073A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>queries!$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>"bcjh"</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>queries!$A$13:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>No encoding</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Encoding</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Encoding &amp; SIMD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>queries!$C$13:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>13.571400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9025399999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8026599999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B199-4347-AA41-D7FE09E7073A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="948002015"/>
+        <c:axId val="904666159"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="948002015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Method</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="904666159"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="904666159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Run time (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="948002015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -569,8 +1714,88 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1072,18 +2297,1065 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>193675</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>41275</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>358774</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>82551</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>292099</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B82552D0-93E3-6DC6-5DC4-1D62097B38E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>193674</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>222249</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -1105,6 +3377,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>130175</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>593725</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23D47B97-4BC7-8D2A-110A-3D9E6C4EE793}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1376,22 +3684,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>20000</v>
+      </c>
+      <c r="B2">
+        <v>71.955500000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>200000</v>
+      </c>
+      <c r="B3">
+        <v>67.151600000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="B4">
+        <v>65.665899999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>20000000</v>
+      </c>
+      <c r="B5">
+        <v>71.587299999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>200000000</v>
+      </c>
+      <c r="B6">
+        <v>102.253</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E89EA8-F026-4C74-9A54-CF5E9C8B89C0}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1402,12 +3766,12 @@
     <col min="7" max="7" width="15.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1415,7 +3779,7 @@
         <v>4.2969900000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1423,37 +3787,58 @@
         <v>0.64374900000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>0.49429200000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>0</v>
       </c>
+      <c r="B13">
+        <v>11.5304</v>
+      </c>
+      <c r="C13">
+        <v>13.571400000000001</v>
+      </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>1</v>
       </c>
+      <c r="B14">
+        <v>52.102899999999998</v>
+      </c>
+      <c r="C14">
+        <v>1.9025399999999999</v>
+      </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>53.580500000000001</v>
+      </c>
+      <c r="C15">
+        <v>1.8026599999999999</v>
       </c>
     </row>
   </sheetData>
